--- a/studios/studio4/recurrence.xlsx
+++ b/studios/studio4/recurrence.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbuhler\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{B7AAB5BB-F2CA-4916-9895-2A37895769E8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8760"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="20184" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -38,12 +40,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -51,8 +53,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -83,7 +92,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -96,6 +105,1206 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>T(n)/n</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>65536</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>131072</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>262144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>524288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1048576</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2097152</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4194304</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8388608</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16777216</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33554432</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>67108864</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>134217728</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>268435456</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>536870912</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1073741824</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2147483648</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4294967296</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8589934592</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17179869184</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34359738368</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>68719476736</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>137438953472</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>274877906944</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>549755813888</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1099511627776</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2199023255552</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4398046511104</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8796093022208</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17592186044416</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35184372088832</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>70368744177664</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>140737488355328</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>281474976710656</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>562949953421312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE26-4723-974C-19BC2E6C35CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="429401912"/>
+        <c:axId val="429395352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="429401912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429395352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="429395352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429401912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>140970</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8A2A435-2477-466D-8769-FEA5B3A11086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,18 +1569,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -394,7 +1603,6 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <f>B2/A2</f>
         <v>1</v>
       </c>
     </row>
@@ -1085,7 +2293,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>